--- a/monthlycases.xlsx
+++ b/monthlycases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mygithub\data-indonesia-covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A263B764-FE14-4BB7-9507-486C7799EAAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9E9DAB-C9B3-44D5-9842-14B7A138FD0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{CD175747-2B29-40EF-9E3F-9AD965713BE2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{CD175747-2B29-40EF-9E3F-9AD965713BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -146,31 +146,47 @@
     <t>Yogyakarta</t>
   </si>
   <si>
-    <t>casemo1</t>
+    <t>pop100000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>casemo2</t>
+    <t>casemar</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>casemo3</t>
+    <t>caseapr</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ratemo1</t>
+    <t>casemay</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ratemo2</t>
+    <t>casejun</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ratemo3</t>
+    <t>casejul</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pop100000</t>
+    <t>rateapr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ratemar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ratemay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ratejun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ratejul</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -220,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -228,9 +244,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,50 +560,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FABD15F-42DB-4ADF-BA5D-D61C82973FE3}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.58203125" customWidth="1"/>
+    <col min="9" max="11" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.08203125" customWidth="1"/>
+    <col min="13" max="13" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -599,34 +627,50 @@
       </c>
       <c r="C2">
         <f>Sheet1!C2</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <f>Sheet1!D2</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <f>Sheet1!E2</f>
-        <v>38</v>
-      </c>
-      <c r="F2" s="3">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <f>Sheet1!F2</f>
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <f>Sheet1!G2</f>
+        <v>415</v>
+      </c>
+      <c r="H2">
         <f>Sheet1!C38</f>
-        <v>0.12820747632740528</v>
-      </c>
-      <c r="G2" s="3">
+        <v>9.1576768805289477E-2</v>
+      </c>
+      <c r="I2">
         <f>Sheet1!D38</f>
-        <v>0.32967636769904213</v>
-      </c>
-      <c r="H2" s="3">
+        <v>0.18315353761057895</v>
+      </c>
+      <c r="J2">
         <f>Sheet1!E38</f>
-        <v>0.69598344292020009</v>
-      </c>
-      <c r="I2">
-        <f>Sheet1!G2</f>
+        <v>0.36630707522115791</v>
+      </c>
+      <c r="K2">
+        <f>Sheet1!F38</f>
+        <v>1.4652283008846316</v>
+      </c>
+      <c r="L2">
+        <f>Sheet1!G38</f>
+        <v>7.6008718108390267</v>
+      </c>
+      <c r="M2">
+        <f>Sheet1!I2</f>
         <v>54.598999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -635,34 +679,50 @@
       </c>
       <c r="C3">
         <f>Sheet1!C3</f>
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <f>Sheet1!D3</f>
-        <v>363</v>
+        <v>222</v>
       </c>
       <c r="E3">
         <f>Sheet1!E3</f>
-        <v>976</v>
-      </c>
-      <c r="F3" s="3">
+        <v>465</v>
+      </c>
+      <c r="F3">
+        <f>Sheet1!F3</f>
+        <v>1493</v>
+      </c>
+      <c r="G3">
+        <f>Sheet1!G3</f>
+        <v>3407</v>
+      </c>
+      <c r="H3">
         <f>Sheet1!C39</f>
-        <v>3.0816289262235208</v>
-      </c>
-      <c r="G3" s="3">
+        <v>0.4337107377647918</v>
+      </c>
+      <c r="I3">
         <f>Sheet1!D39</f>
-        <v>8.286157779401023</v>
-      </c>
-      <c r="H3" s="3">
+        <v>5.0675675675675675</v>
+      </c>
+      <c r="J3">
         <f>Sheet1!E39</f>
-        <v>22.279035792549305</v>
-      </c>
-      <c r="I3">
-        <f>Sheet1!G3</f>
+        <v>10.614499634769905</v>
+      </c>
+      <c r="K3">
+        <f>Sheet1!F39</f>
+        <v>34.080533235938638</v>
+      </c>
+      <c r="L3">
+        <f>Sheet1!G39</f>
+        <v>77.771183345507666</v>
+      </c>
+      <c r="M3">
+        <f>Sheet1!I3</f>
         <v>43.808</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -671,34 +731,50 @@
       </c>
       <c r="C4">
         <f>Sheet1!C4</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f>Sheet1!D4</f>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <f>Sheet1!E4</f>
-        <v>147</v>
-      </c>
-      <c r="F4" s="3">
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <f>Sheet1!F4</f>
+        <v>152</v>
+      </c>
+      <c r="G4">
+        <f>Sheet1!G4</f>
+        <v>193</v>
+      </c>
+      <c r="H4">
         <f>Sheet1!C40</f>
-        <v>0.46125461254612543</v>
-      </c>
-      <c r="G4" s="3">
+        <v>0.13178703215603585</v>
+      </c>
+      <c r="I4">
         <f>Sheet1!D40</f>
-        <v>1.9109119662625198</v>
-      </c>
-      <c r="H4" s="3">
+        <v>0.65893516078017922</v>
+      </c>
+      <c r="J4">
         <f>Sheet1!E40</f>
-        <v>9.6863468634686338</v>
-      </c>
-      <c r="I4">
-        <f>Sheet1!G4</f>
+        <v>3.0311017395888245</v>
+      </c>
+      <c r="K4">
+        <f>Sheet1!F40</f>
+        <v>10.015814443858725</v>
+      </c>
+      <c r="L4">
+        <f>Sheet1!G40</f>
+        <v>12.717448603057459</v>
+      </c>
+      <c r="M4">
+        <f>Sheet1!I4</f>
         <v>15.176</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -707,34 +783,50 @@
       </c>
       <c r="C5">
         <f>Sheet1!C5</f>
-        <v>324</v>
+        <v>142</v>
       </c>
       <c r="D5">
         <f>Sheet1!D5</f>
-        <v>698</v>
+        <v>404</v>
       </c>
       <c r="E5">
         <f>Sheet1!E5</f>
-        <v>1331</v>
-      </c>
-      <c r="F5" s="3">
+        <v>861</v>
+      </c>
+      <c r="F5">
+        <f>Sheet1!F5</f>
+        <v>1453</v>
+      </c>
+      <c r="G5">
+        <f>Sheet1!G5</f>
+        <v>1835</v>
+      </c>
+      <c r="H5">
         <f>Sheet1!C41</f>
-        <v>2.4619125413168192</v>
-      </c>
-      <c r="G5" s="3">
+        <v>1.0789863607005814</v>
+      </c>
+      <c r="I5">
         <f>Sheet1!D41</f>
-        <v>5.30374985752821</v>
-      </c>
-      <c r="H5" s="3">
+        <v>3.069792181148133</v>
+      </c>
+      <c r="J5">
         <f>Sheet1!E41</f>
-        <v>10.113597507693477</v>
-      </c>
-      <c r="I5">
-        <f>Sheet1!G5</f>
+        <v>6.5423046236845108</v>
+      </c>
+      <c r="K5">
+        <f>Sheet1!F41</f>
+        <v>11.04061395843623</v>
+      </c>
+      <c r="L5">
+        <f>Sheet1!G41</f>
+        <v>13.943239238630753</v>
+      </c>
+      <c r="M5">
+        <f>Sheet1!I5</f>
         <v>131.60499999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -743,34 +835,50 @@
       </c>
       <c r="C6">
         <f>Sheet1!C6</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f>Sheet1!D6</f>
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <f>Sheet1!E6</f>
-        <v>107</v>
-      </c>
-      <c r="F6" s="3">
+        <v>91</v>
+      </c>
+      <c r="F6">
+        <f>Sheet1!F6</f>
+        <v>125</v>
+      </c>
+      <c r="G6">
+        <f>Sheet1!G6</f>
+        <v>217</v>
+      </c>
+      <c r="H6">
         <f>Sheet1!C42</f>
-        <v>0.19803940984255866</v>
-      </c>
-      <c r="G6" s="3">
+        <v>4.9509852460639665E-2</v>
+      </c>
+      <c r="I6">
         <f>Sheet1!D42</f>
-        <v>3.3171601148628578</v>
-      </c>
-      <c r="H6" s="3">
+        <v>0.59411822952767601</v>
+      </c>
+      <c r="J6">
         <f>Sheet1!E42</f>
-        <v>5.2975542132884446</v>
-      </c>
-      <c r="I6">
-        <f>Sheet1!G6</f>
+        <v>4.50539657391821</v>
+      </c>
+      <c r="K6">
+        <f>Sheet1!F42</f>
+        <v>6.188731557579958</v>
+      </c>
+      <c r="L6">
+        <f>Sheet1!G42</f>
+        <v>10.743637983958807</v>
+      </c>
+      <c r="M6">
+        <f>Sheet1!I6</f>
         <v>20.198</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -779,34 +887,50 @@
       </c>
       <c r="C7">
         <f>Sheet1!C7</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f>Sheet1!D7</f>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <f>Sheet1!E7</f>
-        <v>220</v>
-      </c>
-      <c r="F7" s="3">
+        <v>94</v>
+      </c>
+      <c r="F7">
+        <f>Sheet1!F7</f>
+        <v>249</v>
+      </c>
+      <c r="G7">
+        <f>Sheet1!G7</f>
+        <v>1015</v>
+      </c>
+      <c r="H7">
         <f>Sheet1!C43</f>
-        <v>0.32797638570022958</v>
-      </c>
-      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <f>Sheet1!D43</f>
-        <v>2.295834699901607</v>
-      </c>
-      <c r="H7" s="3">
+        <v>1.2299114463758609</v>
+      </c>
+      <c r="J7">
         <f>Sheet1!E43</f>
-        <v>18.038701213512628</v>
-      </c>
-      <c r="I7">
-        <f>Sheet1!G7</f>
+        <v>7.7074450639553955</v>
+      </c>
+      <c r="K7">
+        <f>Sheet1!F43</f>
+        <v>20.416530009839292</v>
+      </c>
+      <c r="L7">
+        <f>Sheet1!G43</f>
+        <v>83.224007871433258</v>
+      </c>
+      <c r="M7">
+        <f>Sheet1!I7</f>
         <v>12.196</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -815,34 +939,50 @@
       </c>
       <c r="C8">
         <f>Sheet1!C8</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <f>Sheet1!D8</f>
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <f>Sheet1!E8</f>
-        <v>222</v>
-      </c>
-      <c r="F8" s="3">
+        <v>168</v>
+      </c>
+      <c r="F8">
+        <f>Sheet1!F8</f>
+        <v>239</v>
+      </c>
+      <c r="G8">
+        <f>Sheet1!G8</f>
+        <v>433</v>
+      </c>
+      <c r="H8">
         <f>Sheet1!C44</f>
-        <v>0.71297616622530047</v>
-      </c>
-      <c r="G8" s="3">
+        <v>0.20370747606437156</v>
+      </c>
+      <c r="I8">
         <f>Sheet1!D44</f>
-        <v>10.694642493379508</v>
-      </c>
-      <c r="H8" s="3">
+        <v>3.7685883071908739</v>
+      </c>
+      <c r="J8">
         <f>Sheet1!E44</f>
-        <v>22.611529843145245</v>
-      </c>
-      <c r="I8">
-        <f>Sheet1!G8</f>
+        <v>17.111427989407211</v>
+      </c>
+      <c r="K8">
+        <f>Sheet1!F44</f>
+        <v>24.343043389692404</v>
+      </c>
+      <c r="L8">
+        <f>Sheet1!G44</f>
+        <v>44.102668567936448</v>
+      </c>
+      <c r="M8">
+        <f>Sheet1!I8</f>
         <v>9.8179999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -851,34 +991,50 @@
       </c>
       <c r="C9">
         <f>Sheet1!C9</f>
-        <v>3032</v>
+        <v>747</v>
       </c>
       <c r="D9">
         <f>Sheet1!D9</f>
-        <v>6155</v>
+        <v>4175</v>
       </c>
       <c r="E9">
         <f>Sheet1!E9</f>
-        <v>9655</v>
-      </c>
-      <c r="F9" s="3">
+        <v>7348</v>
+      </c>
+      <c r="F9">
+        <f>Sheet1!F9</f>
+        <v>11424</v>
+      </c>
+      <c r="G9">
+        <f>Sheet1!G9</f>
+        <v>21399</v>
+      </c>
+      <c r="H9">
         <f>Sheet1!C45</f>
-        <v>28.482855800845467</v>
-      </c>
-      <c r="G9" s="3">
+        <v>7.0173790511977456</v>
+      </c>
+      <c r="I9">
         <f>Sheet1!D45</f>
-        <v>57.820573038985437</v>
-      </c>
-      <c r="H9" s="3">
+        <v>39.220291216533582</v>
+      </c>
+      <c r="J9">
         <f>Sheet1!E45</f>
-        <v>90.699859088774076</v>
-      </c>
-      <c r="I9">
-        <f>Sheet1!G9</f>
+        <v>69.027712541099106</v>
+      </c>
+      <c r="K9">
+        <f>Sheet1!F45</f>
+        <v>107.3179896665101</v>
+      </c>
+      <c r="L9">
+        <f>Sheet1!G45</f>
+        <v>201.02395490840769</v>
+      </c>
+      <c r="M9">
+        <f>Sheet1!I9</f>
         <v>106.45</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -887,34 +1043,50 @@
       </c>
       <c r="C10">
         <f>Sheet1!C10</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <f>Sheet1!D10</f>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <f>Sheet1!E10</f>
-        <v>112</v>
-      </c>
-      <c r="F10" s="3">
+        <v>97</v>
+      </c>
+      <c r="F10">
+        <f>Sheet1!F10</f>
+        <v>117</v>
+      </c>
+      <c r="G10">
+        <f>Sheet1!G10</f>
+        <v>162</v>
+      </c>
+      <c r="H10">
         <f>Sheet1!C46</f>
-        <v>0.21751543000081566</v>
-      </c>
-      <c r="G10" s="3">
+        <v>5.4378857500203916E-2</v>
+      </c>
+      <c r="I10">
         <f>Sheet1!D46</f>
-        <v>2.2839120150085646</v>
-      </c>
-      <c r="H10" s="3">
+        <v>0.87006172000326265</v>
+      </c>
+      <c r="J10">
         <f>Sheet1!E46</f>
-        <v>3.0452160200114191</v>
-      </c>
-      <c r="I10">
-        <f>Sheet1!G10</f>
+        <v>2.6373745887598901</v>
+      </c>
+      <c r="K10">
+        <f>Sheet1!F46</f>
+        <v>3.1811631637619291</v>
+      </c>
+      <c r="L10">
+        <f>Sheet1!G46</f>
+        <v>4.4046874575165171</v>
+      </c>
+      <c r="M10">
+        <f>Sheet1!I10</f>
         <v>36.779000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -923,34 +1095,50 @@
       </c>
       <c r="C11">
         <f>Sheet1!C11</f>
-        <v>696</v>
+        <v>198</v>
       </c>
       <c r="D11">
         <f>Sheet1!D11</f>
-        <v>1700</v>
+        <v>1012</v>
       </c>
       <c r="E11">
         <f>Sheet1!E11</f>
-        <v>2805</v>
-      </c>
-      <c r="F11" s="3">
+        <v>2260</v>
+      </c>
+      <c r="F11">
+        <f>Sheet1!F11</f>
+        <v>3218</v>
+      </c>
+      <c r="G11">
+        <f>Sheet1!G11</f>
+        <v>6532</v>
+      </c>
+      <c r="H11">
         <f>Sheet1!C47</f>
-        <v>1.393792417048324</v>
-      </c>
-      <c r="G11" s="3">
+        <v>0.39650991174650596</v>
+      </c>
+      <c r="I11">
         <f>Sheet1!D47</f>
-        <v>3.4043780301467685</v>
-      </c>
-      <c r="H11" s="3">
+        <v>2.0266062155932527</v>
+      </c>
+      <c r="J11">
         <f>Sheet1!E47</f>
-        <v>5.617223749742168</v>
-      </c>
-      <c r="I11">
-        <f>Sheet1!G11</f>
+        <v>4.5258202047833516</v>
+      </c>
+      <c r="K11">
+        <f>Sheet1!F47</f>
+        <v>6.4442873535366481</v>
+      </c>
+      <c r="L11">
+        <f>Sheet1!G47</f>
+        <v>13.080821937010995</v>
+      </c>
+      <c r="M11">
+        <f>Sheet1!I11</f>
         <v>499.35700000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
@@ -959,34 +1147,50 @@
       </c>
       <c r="C12">
         <f>Sheet1!C12</f>
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="D12">
         <f>Sheet1!D12</f>
-        <v>1175</v>
+        <v>724</v>
       </c>
       <c r="E12">
         <f>Sheet1!E12</f>
-        <v>2471</v>
-      </c>
-      <c r="F12" s="3">
+        <v>1403</v>
+      </c>
+      <c r="F12">
+        <f>Sheet1!F12</f>
+        <v>3833</v>
+      </c>
+      <c r="G12">
+        <f>Sheet1!G12</f>
+        <v>9516</v>
+      </c>
+      <c r="H12">
         <f>Sheet1!C48</f>
-        <v>0.99885232154458625</v>
-      </c>
-      <c r="G12" s="3">
+        <v>0.26616981634282671</v>
+      </c>
+      <c r="I12">
         <f>Sheet1!D48</f>
-        <v>3.3628982172346387</v>
-      </c>
-      <c r="H12" s="3">
+        <v>2.0721177100237265</v>
+      </c>
+      <c r="J12">
         <f>Sheet1!E48</f>
-        <v>7.0721033998185465</v>
-      </c>
-      <c r="I12">
-        <f>Sheet1!G12</f>
+        <v>4.0154435734299554</v>
+      </c>
+      <c r="K12">
+        <f>Sheet1!F48</f>
+        <v>10.970203290774784</v>
+      </c>
+      <c r="L12">
+        <f>Sheet1!G48</f>
+        <v>27.235182498046655</v>
+      </c>
+      <c r="M12">
+        <f>Sheet1!I12</f>
         <v>349.40100000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -995,34 +1199,50 @@
       </c>
       <c r="C13">
         <f>Sheet1!C13</f>
-        <v>590</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <f>Sheet1!D13</f>
-        <v>2377</v>
+        <v>958</v>
       </c>
       <c r="E13">
         <f>Sheet1!E13</f>
-        <v>9057</v>
-      </c>
-      <c r="F13" s="3">
+        <v>4857</v>
+      </c>
+      <c r="F13">
+        <f>Sheet1!F13</f>
+        <v>12136</v>
+      </c>
+      <c r="G13">
+        <f>Sheet1!G13</f>
+        <v>22089</v>
+      </c>
+      <c r="H13">
         <f>Sheet1!C49</f>
-        <v>1.4792046391868887</v>
-      </c>
-      <c r="G13" s="3">
+        <v>0.2331627651599672</v>
+      </c>
+      <c r="I13">
         <f>Sheet1!D49</f>
-        <v>5.959439707368194</v>
-      </c>
-      <c r="H13" s="3">
+        <v>2.401827193798372</v>
+      </c>
+      <c r="J13">
         <f>Sheet1!E49</f>
-        <v>22.707044774772289</v>
-      </c>
-      <c r="I13">
-        <f>Sheet1!G13</f>
+        <v>12.17711344496732</v>
+      </c>
+      <c r="K13">
+        <f>Sheet1!F49</f>
+        <v>30.426487290122171</v>
+      </c>
+      <c r="L13">
+        <f>Sheet1!G49</f>
+        <v>55.379917415252855</v>
+      </c>
+      <c r="M13">
+        <f>Sheet1!I13</f>
         <v>398.863</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1031,34 +1251,50 @@
       </c>
       <c r="C14">
         <f>Sheet1!C14</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <f>Sheet1!D14</f>
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <f>Sheet1!E14</f>
-        <v>296</v>
-      </c>
-      <c r="F14" s="3">
+        <v>189</v>
+      </c>
+      <c r="F14">
+        <f>Sheet1!F14</f>
+        <v>321</v>
+      </c>
+      <c r="G14">
+        <f>Sheet1!G14</f>
+        <v>387</v>
+      </c>
+      <c r="H14">
         <f>Sheet1!C50</f>
-        <v>0.40897405935966347</v>
-      </c>
-      <c r="G14" s="3">
+        <v>0.1752745968684272</v>
+      </c>
+      <c r="I14">
         <f>Sheet1!D50</f>
-        <v>2.5706940874035991</v>
-      </c>
-      <c r="H14" s="3">
+        <v>1.1295474020409753</v>
+      </c>
+      <c r="J14">
         <f>Sheet1!E50</f>
-        <v>5.7645867414504952</v>
-      </c>
-      <c r="I14">
-        <f>Sheet1!G14</f>
+        <v>3.6807665342369713</v>
+      </c>
+      <c r="K14">
+        <f>Sheet1!F50</f>
+        <v>6.2514606216405699</v>
+      </c>
+      <c r="L14">
+        <f>Sheet1!G50</f>
+        <v>7.5368076653423701</v>
+      </c>
+      <c r="M14">
+        <f>Sheet1!I14</f>
         <v>51.347999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1067,34 +1303,50 @@
       </c>
       <c r="C15">
         <f>Sheet1!C15</f>
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <f>Sheet1!D15</f>
-        <v>484</v>
+        <v>170</v>
       </c>
       <c r="E15">
         <f>Sheet1!E15</f>
-        <v>2392</v>
-      </c>
-      <c r="F15" s="3">
+        <v>919</v>
+      </c>
+      <c r="F15">
+        <f>Sheet1!F15</f>
+        <v>3148</v>
+      </c>
+      <c r="G15">
+        <f>Sheet1!G15</f>
+        <v>6098</v>
+      </c>
+      <c r="H15">
         <f>Sheet1!C51</f>
-        <v>2.2304832713754648</v>
-      </c>
-      <c r="G15" s="3">
+        <v>0.18587360594795541</v>
+      </c>
+      <c r="I15">
         <f>Sheet1!D51</f>
-        <v>11.245353159851302</v>
-      </c>
-      <c r="H15" s="3">
+        <v>3.949814126394052</v>
+      </c>
+      <c r="J15">
         <f>Sheet1!E51</f>
-        <v>55.576208178438662</v>
-      </c>
-      <c r="I15">
-        <f>Sheet1!G15</f>
+        <v>21.352230483271377</v>
+      </c>
+      <c r="K15">
+        <f>Sheet1!F51</f>
+        <v>73.141263940520446</v>
+      </c>
+      <c r="L15">
+        <f>Sheet1!G51</f>
+        <v>141.68215613382901</v>
+      </c>
+      <c r="M15">
+        <f>Sheet1!I15</f>
         <v>43.04</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1103,34 +1355,50 @@
       </c>
       <c r="C16">
         <f>Sheet1!C16</f>
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <f>Sheet1!D16</f>
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E16">
         <f>Sheet1!E16</f>
-        <v>738</v>
-      </c>
-      <c r="F16" s="3">
+        <v>410</v>
+      </c>
+      <c r="F16">
+        <f>Sheet1!F16</f>
+        <v>894</v>
+      </c>
+      <c r="G16">
+        <f>Sheet1!G16</f>
+        <v>1729</v>
+      </c>
+      <c r="H16">
         <f>Sheet1!C52</f>
-        <v>1.6611295681063123</v>
-      </c>
-      <c r="G16" s="3">
+        <v>0.32500361115123499</v>
+      </c>
+      <c r="I16">
         <f>Sheet1!D52</f>
-        <v>8.3778708652318361</v>
-      </c>
-      <c r="H16" s="3">
+        <v>5.2361692907698973</v>
+      </c>
+      <c r="J16">
         <f>Sheet1!E52</f>
-        <v>26.650296114401272</v>
-      </c>
-      <c r="I16">
-        <f>Sheet1!G16</f>
+        <v>14.805720063556262</v>
+      </c>
+      <c r="K16">
+        <f>Sheet1!F52</f>
+        <v>32.283692041022675</v>
+      </c>
+      <c r="L16">
+        <f>Sheet1!G52</f>
+        <v>62.436804853387258</v>
+      </c>
+      <c r="M16">
+        <f>Sheet1!I16</f>
         <v>27.692</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1139,34 +1407,50 @@
       </c>
       <c r="C17">
         <f>Sheet1!C17</f>
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <f>Sheet1!D17</f>
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="E17">
         <f>Sheet1!E17</f>
-        <v>417</v>
-      </c>
-      <c r="F17" s="3">
+        <v>295</v>
+      </c>
+      <c r="F17">
+        <f>Sheet1!F17</f>
+        <v>518</v>
+      </c>
+      <c r="G17">
+        <f>Sheet1!G17</f>
+        <v>1426</v>
+      </c>
+      <c r="H17">
         <f>Sheet1!C53</f>
-        <v>1.5552099533437016</v>
-      </c>
-      <c r="G17" s="3">
+        <v>0.52718981469278015</v>
+      </c>
+      <c r="I17">
         <f>Sheet1!D53</f>
-        <v>6.8007486095368641</v>
-      </c>
-      <c r="H17" s="3">
+        <v>3.5321717584416272</v>
+      </c>
+      <c r="J17">
         <f>Sheet1!E53</f>
-        <v>10.991907636344466</v>
-      </c>
-      <c r="I17">
-        <f>Sheet1!G17</f>
+        <v>7.7760497667185078</v>
+      </c>
+      <c r="K17">
+        <f>Sheet1!F53</f>
+        <v>13.654216200543006</v>
+      </c>
+      <c r="L17">
+        <f>Sheet1!G53</f>
+        <v>37.588633787595228</v>
+      </c>
+      <c r="M17">
+        <f>Sheet1!I17</f>
         <v>37.936999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1175,34 +1459,50 @@
       </c>
       <c r="C18">
         <f>Sheet1!C18</f>
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <f>Sheet1!D18</f>
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <f>Sheet1!E18</f>
-        <v>173</v>
-      </c>
-      <c r="F18" s="3">
+        <v>165</v>
+      </c>
+      <c r="F18">
+        <f>Sheet1!F18</f>
+        <v>206</v>
+      </c>
+      <c r="G18">
+        <f>Sheet1!G18</f>
+        <v>283</v>
+      </c>
+      <c r="H18">
         <f>Sheet1!C54</f>
-        <v>8.984375</v>
-      </c>
-      <c r="G18" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="I18">
         <f>Sheet1!D54</f>
-        <v>20.833333333333336</v>
-      </c>
-      <c r="H18" s="3">
+        <v>13.020833333333334</v>
+      </c>
+      <c r="J18">
         <f>Sheet1!E54</f>
-        <v>22.526041666666668</v>
-      </c>
-      <c r="I18">
-        <f>Sheet1!G18</f>
+        <v>21.484375</v>
+      </c>
+      <c r="K18">
+        <f>Sheet1!F54</f>
+        <v>26.822916666666668</v>
+      </c>
+      <c r="L18">
+        <f>Sheet1!G54</f>
+        <v>36.848958333333336</v>
+      </c>
+      <c r="M18">
+        <f>Sheet1!I18</f>
         <v>7.68</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1211,34 +1511,50 @@
       </c>
       <c r="C19">
         <f>Sheet1!C19</f>
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <f>Sheet1!D19</f>
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="E19">
         <f>Sheet1!E19</f>
-        <v>263</v>
-      </c>
-      <c r="F19" s="3">
+        <v>197</v>
+      </c>
+      <c r="F19">
+        <f>Sheet1!F19</f>
+        <v>293</v>
+      </c>
+      <c r="G19">
+        <f>Sheet1!G19</f>
+        <v>447</v>
+      </c>
+      <c r="H19">
         <f>Sheet1!C55</f>
-        <v>3.5233253055035232</v>
-      </c>
-      <c r="G19" s="3">
+        <v>0.31219338150031217</v>
+      </c>
+      <c r="I19">
         <f>Sheet1!D55</f>
-        <v>6.2438676300062435</v>
-      </c>
-      <c r="H19" s="3">
+        <v>3.9693158505039694</v>
+      </c>
+      <c r="J19">
         <f>Sheet1!E55</f>
-        <v>11.729551333511729</v>
-      </c>
-      <c r="I19">
-        <f>Sheet1!G19</f>
+        <v>8.7860137365087851</v>
+      </c>
+      <c r="K19">
+        <f>Sheet1!F55</f>
+        <v>13.067522968513067</v>
+      </c>
+      <c r="L19">
+        <f>Sheet1!G55</f>
+        <v>19.935777361519936</v>
+      </c>
+      <c r="M19">
+        <f>Sheet1!I19</f>
         <v>22.422000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1247,34 +1563,50 @@
       </c>
       <c r="C20">
         <f>Sheet1!C20</f>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <f>Sheet1!D20</f>
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E20">
         <f>Sheet1!E20</f>
-        <v>172</v>
-      </c>
-      <c r="F20" s="3">
+        <v>133</v>
+      </c>
+      <c r="F20">
+        <f>Sheet1!F20</f>
+        <v>190</v>
+      </c>
+      <c r="G20">
+        <f>Sheet1!G20</f>
+        <v>255</v>
+      </c>
+      <c r="H20">
         <f>Sheet1!C56</f>
-        <v>0.30512134441158523</v>
-      </c>
-      <c r="G20" s="3">
+        <v>9.388349058818006E-2</v>
+      </c>
+      <c r="I20">
         <f>Sheet1!D56</f>
-        <v>0.98577665117589064</v>
-      </c>
-      <c r="H20" s="3">
+        <v>0.53983007088203538</v>
+      </c>
+      <c r="J20">
         <f>Sheet1!E56</f>
-        <v>2.0184950476458714</v>
-      </c>
-      <c r="I20">
-        <f>Sheet1!G20</f>
+        <v>1.5608130310284936</v>
+      </c>
+      <c r="K20">
+        <f>Sheet1!F56</f>
+        <v>2.2297329014692764</v>
+      </c>
+      <c r="L20">
+        <f>Sheet1!G56</f>
+        <v>2.9925362624982395</v>
+      </c>
+      <c r="M20">
+        <f>Sheet1!I20</f>
         <v>85.212000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1283,34 +1615,50 @@
       </c>
       <c r="C21">
         <f>Sheet1!C21</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <f>Sheet1!D21</f>
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <f>Sheet1!E21</f>
-        <v>383</v>
-      </c>
-      <c r="F21" s="3">
+        <v>153</v>
+      </c>
+      <c r="F21">
+        <f>Sheet1!F21</f>
+        <v>728</v>
+      </c>
+      <c r="G21">
+        <f>Sheet1!G21</f>
+        <v>1530</v>
+      </c>
+      <c r="H21">
         <f>Sheet1!C57</f>
-        <v>0.3127932436659368</v>
-      </c>
-      <c r="G21" s="3">
+        <v>7.8198310916484201E-2</v>
+      </c>
+      <c r="I21">
         <f>Sheet1!D57</f>
-        <v>7.4288395370659996</v>
-      </c>
-      <c r="H21" s="3">
+        <v>3.1279324366593682</v>
+      </c>
+      <c r="J21">
         <f>Sheet1!E57</f>
-        <v>29.949953081013451</v>
-      </c>
-      <c r="I21">
-        <f>Sheet1!G21</f>
+        <v>11.964341570222082</v>
+      </c>
+      <c r="K21">
+        <f>Sheet1!F57</f>
+        <v>56.928370347200499</v>
+      </c>
+      <c r="L21">
+        <f>Sheet1!G57</f>
+        <v>119.64341570222084</v>
+      </c>
+      <c r="M21">
+        <f>Sheet1!I21</f>
         <v>12.788</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1319,34 +1667,50 @@
       </c>
       <c r="C22">
         <f>Sheet1!C22</f>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f>Sheet1!D22</f>
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <f>Sheet1!E22</f>
-        <v>544</v>
-      </c>
-      <c r="F22" s="3">
+        <v>223</v>
+      </c>
+      <c r="F22">
+        <f>Sheet1!F22</f>
+        <v>742</v>
+      </c>
+      <c r="G22">
+        <f>Sheet1!G22</f>
+        <v>1093</v>
+      </c>
+      <c r="H22">
         <f>Sheet1!C58</f>
-        <v>0.92799825317975881</v>
-      </c>
-      <c r="G22" s="3">
+        <v>5.4588132539985811E-2</v>
+      </c>
+      <c r="I22">
         <f>Sheet1!D58</f>
-        <v>5.8409301817784813</v>
-      </c>
-      <c r="H22" s="3">
+        <v>1.2555270484196737</v>
+      </c>
+      <c r="J22">
         <f>Sheet1!E58</f>
-        <v>29.695944101752282</v>
-      </c>
-      <c r="I22">
-        <f>Sheet1!G22</f>
+        <v>12.173153556416835</v>
+      </c>
+      <c r="K22">
+        <f>Sheet1!F58</f>
+        <v>40.504394344669471</v>
+      </c>
+      <c r="L22">
+        <f>Sheet1!G58</f>
+        <v>59.664828866204488</v>
+      </c>
+      <c r="M22">
+        <f>Sheet1!I22</f>
         <v>18.318999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1355,34 +1719,50 @@
       </c>
       <c r="C23">
         <f>Sheet1!C23</f>
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <f>Sheet1!D23</f>
-        <v>375</v>
+        <v>230</v>
       </c>
       <c r="E23">
         <f>Sheet1!E23</f>
-        <v>1022</v>
-      </c>
-      <c r="F23" s="3">
+        <v>636</v>
+      </c>
+      <c r="F23">
+        <f>Sheet1!F23</f>
+        <v>1234</v>
+      </c>
+      <c r="G23">
+        <f>Sheet1!G23</f>
+        <v>2065</v>
+      </c>
+      <c r="H23">
         <f>Sheet1!C59</f>
-        <v>1.1901045731231465</v>
-      </c>
-      <c r="G23" s="3">
+        <v>7.8039644139222722E-2</v>
+      </c>
+      <c r="I23">
         <f>Sheet1!D59</f>
-        <v>7.3162166380521301</v>
-      </c>
-      <c r="H23" s="3">
+        <v>4.487279538005307</v>
+      </c>
+      <c r="J23">
         <f>Sheet1!E59</f>
-        <v>19.939129077571405</v>
-      </c>
-      <c r="I23">
-        <f>Sheet1!G23</f>
+        <v>12.408303418136413</v>
+      </c>
+      <c r="K23">
+        <f>Sheet1!F59</f>
+        <v>24.07523021695021</v>
+      </c>
+      <c r="L23">
+        <f>Sheet1!G59</f>
+        <v>40.287966286873733</v>
+      </c>
+      <c r="M23">
+        <f>Sheet1!I23</f>
         <v>51.256</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1391,34 +1771,50 @@
       </c>
       <c r="C24">
         <f>Sheet1!C24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <f>Sheet1!D24</f>
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <f>Sheet1!E24</f>
-        <v>108</v>
-      </c>
-      <c r="F24" s="3">
+        <v>92</v>
+      </c>
+      <c r="F24">
+        <f>Sheet1!F24</f>
+        <v>113</v>
+      </c>
+      <c r="G24">
+        <f>Sheet1!G24</f>
+        <v>145</v>
+      </c>
+      <c r="H24">
         <f>Sheet1!C60</f>
-        <v>1.8045981159995669E-2</v>
-      </c>
-      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <f>Sheet1!D60</f>
-        <v>1.2812646623596924</v>
-      </c>
-      <c r="H24" s="3">
+        <v>5.4137943479987002E-2</v>
+      </c>
+      <c r="J24">
         <f>Sheet1!E60</f>
-        <v>1.9489659652795321</v>
-      </c>
-      <c r="I24">
-        <f>Sheet1!G24</f>
+        <v>1.6602302667196016</v>
+      </c>
+      <c r="K24">
+        <f>Sheet1!F60</f>
+        <v>2.0391958710795106</v>
+      </c>
+      <c r="L24">
+        <f>Sheet1!G60</f>
+        <v>2.6166672681993721</v>
+      </c>
+      <c r="M24">
+        <f>Sheet1!I24</f>
         <v>55.414000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1427,34 +1823,50 @@
       </c>
       <c r="C25">
         <f>Sheet1!C25</f>
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <f>Sheet1!D25</f>
-        <v>389</v>
+        <v>205</v>
       </c>
       <c r="E25">
         <f>Sheet1!E25</f>
-        <v>1368</v>
-      </c>
-      <c r="F25" s="3">
+        <v>675</v>
+      </c>
+      <c r="F25">
+        <f>Sheet1!F25</f>
+        <v>1750</v>
+      </c>
+      <c r="G25">
+        <f>Sheet1!G25</f>
+        <v>3059</v>
+      </c>
+      <c r="H25">
         <f>Sheet1!C61</f>
-        <v>3.114630028526518</v>
-      </c>
-      <c r="G25" s="3">
+        <v>0.29108691855388019</v>
+      </c>
+      <c r="I25">
         <f>Sheet1!D61</f>
-        <v>11.32328113174594</v>
-      </c>
-      <c r="H25" s="3">
+        <v>5.9672818303545441</v>
+      </c>
+      <c r="J25">
         <f>Sheet1!E61</f>
-        <v>39.820690458170809</v>
-      </c>
-      <c r="I25">
-        <f>Sheet1!G25</f>
+        <v>19.648367002386912</v>
+      </c>
+      <c r="K25">
+        <f>Sheet1!F61</f>
+        <v>50.940210746929033</v>
+      </c>
+      <c r="L25">
+        <f>Sheet1!G61</f>
+        <v>89.043488385631946</v>
+      </c>
+      <c r="M25">
+        <f>Sheet1!I25</f>
         <v>34.353999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1463,34 +1875,50 @@
       </c>
       <c r="C26">
         <f>Sheet1!C26</f>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <f>Sheet1!D26</f>
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <f>Sheet1!E26</f>
-        <v>142</v>
-      </c>
-      <c r="F26" s="3">
+        <v>117</v>
+      </c>
+      <c r="F26">
+        <f>Sheet1!F26</f>
+        <v>226</v>
+      </c>
+      <c r="G26">
+        <f>Sheet1!G26</f>
+        <v>445</v>
+      </c>
+      <c r="H26">
         <f>Sheet1!C62</f>
-        <v>0.42085770800892219</v>
-      </c>
-      <c r="G26" s="3">
+        <v>4.2085770800892215E-2</v>
+      </c>
+      <c r="I26">
         <f>Sheet1!D62</f>
-        <v>1.4870305682981917</v>
-      </c>
-      <c r="H26" s="3">
+        <v>0.57517220094552701</v>
+      </c>
+      <c r="J26">
         <f>Sheet1!E62</f>
-        <v>1.9920598179088982</v>
-      </c>
-      <c r="I26">
-        <f>Sheet1!G26</f>
+        <v>1.6413450612347964</v>
+      </c>
+      <c r="K26">
+        <f>Sheet1!F62</f>
+        <v>3.1704614003338802</v>
+      </c>
+      <c r="L26">
+        <f>Sheet1!G62</f>
+        <v>6.2427226687990123</v>
+      </c>
+      <c r="M26">
+        <f>Sheet1!I26</f>
         <v>71.283000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1499,34 +1927,50 @@
       </c>
       <c r="C27">
         <f>Sheet1!C27</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <f>Sheet1!D27</f>
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E27">
         <f>Sheet1!E27</f>
-        <v>104</v>
-      </c>
-      <c r="F27" s="3">
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <f>Sheet1!F27</f>
+        <v>115</v>
+      </c>
+      <c r="G27">
+        <f>Sheet1!G27</f>
+        <v>230</v>
+      </c>
+      <c r="H27">
         <f>Sheet1!C63</f>
-        <v>0.49822064056939497</v>
-      </c>
-      <c r="G27" s="3">
+        <v>7.1174377224199281E-2</v>
+      </c>
+      <c r="I27">
         <f>Sheet1!D63</f>
-        <v>5.4804270462633449</v>
-      </c>
-      <c r="H27" s="3">
+        <v>2.9893238434163698</v>
+      </c>
+      <c r="J27">
         <f>Sheet1!E63</f>
-        <v>7.4021352313167252</v>
-      </c>
-      <c r="I27">
-        <f>Sheet1!G27</f>
+        <v>6.5480427046263339</v>
+      </c>
+      <c r="K27">
+        <f>Sheet1!F63</f>
+        <v>8.185053380782918</v>
+      </c>
+      <c r="L27">
+        <f>Sheet1!G63</f>
+        <v>16.370106761565836</v>
+      </c>
+      <c r="M27">
+        <f>Sheet1!I27</f>
         <v>14.05</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1535,34 +1979,50 @@
       </c>
       <c r="C28">
         <f>Sheet1!C28</f>
-        <v>370</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <f>Sheet1!D28</f>
-        <v>1064</v>
+        <v>491</v>
       </c>
       <c r="E28">
         <f>Sheet1!E28</f>
-        <v>3573</v>
-      </c>
-      <c r="F28" s="3">
+        <v>1541</v>
+      </c>
+      <c r="F28">
+        <f>Sheet1!F28</f>
+        <v>5084</v>
+      </c>
+      <c r="G28">
+        <f>Sheet1!G28</f>
+        <v>9422</v>
+      </c>
+      <c r="H28">
         <f>Sheet1!C64</f>
-        <v>4.1442652329749103</v>
-      </c>
-      <c r="G28" s="3">
+        <v>0.56003584229390679</v>
+      </c>
+      <c r="I28">
         <f>Sheet1!D64</f>
-        <v>11.917562724014337</v>
-      </c>
-      <c r="H28" s="3">
+        <v>5.4995519713261647</v>
+      </c>
+      <c r="J28">
         <f>Sheet1!E64</f>
-        <v>40.020161290322584</v>
-      </c>
-      <c r="I28">
-        <f>Sheet1!G28</f>
+        <v>17.260304659498207</v>
+      </c>
+      <c r="K28">
+        <f>Sheet1!F64</f>
+        <v>56.944444444444443</v>
+      </c>
+      <c r="L28">
+        <f>Sheet1!G64</f>
+        <v>105.5331541218638</v>
+      </c>
+      <c r="M28">
+        <f>Sheet1!I28</f>
         <v>89.28</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1571,34 +2031,50 @@
       </c>
       <c r="C29">
         <f>Sheet1!C29</f>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <f>Sheet1!D29</f>
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <f>Sheet1!E29</f>
-        <v>173</v>
-      </c>
-      <c r="F29" s="3">
+        <v>128</v>
+      </c>
+      <c r="F29">
+        <f>Sheet1!F29</f>
+        <v>189</v>
+      </c>
+      <c r="G29">
+        <f>Sheet1!G29</f>
+        <v>207</v>
+      </c>
+      <c r="H29">
         <f>Sheet1!C65</f>
-        <v>0.8718114304165322</v>
-      </c>
-      <c r="G29" s="3">
+        <v>9.6867936712948022E-2</v>
+      </c>
+      <c r="I29">
         <f>Sheet1!D65</f>
-        <v>3.7132709073296741</v>
-      </c>
-      <c r="H29" s="3">
+        <v>1.517597675169519</v>
+      </c>
+      <c r="J29">
         <f>Sheet1!E65</f>
-        <v>5.586051017113336</v>
-      </c>
-      <c r="I29">
-        <f>Sheet1!G29</f>
+        <v>4.1330319664191153</v>
+      </c>
+      <c r="K29">
+        <f>Sheet1!F65</f>
+        <v>6.1026800129157248</v>
+      </c>
+      <c r="L29">
+        <f>Sheet1!G65</f>
+        <v>6.6838876331934136</v>
+      </c>
+      <c r="M29">
+        <f>Sheet1!I29</f>
         <v>30.97</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1607,34 +2083,50 @@
       </c>
       <c r="C30">
         <f>Sheet1!C30</f>
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <f>Sheet1!D30</f>
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <f>Sheet1!E30</f>
-        <v>329</v>
-      </c>
-      <c r="F30" s="3">
+        <v>244</v>
+      </c>
+      <c r="F30">
+        <f>Sheet1!F30</f>
+        <v>363</v>
+      </c>
+      <c r="G30">
+        <f>Sheet1!G30</f>
+        <v>782</v>
+      </c>
+      <c r="H30">
         <f>Sheet1!C66</f>
-        <v>1.3427202787051822</v>
-      </c>
-      <c r="G30" s="3">
+        <v>0.10886921178690666</v>
+      </c>
+      <c r="I30">
         <f>Sheet1!D66</f>
-        <v>7.3305269269850486</v>
-      </c>
-      <c r="H30" s="3">
+        <v>2.2499637102627377</v>
+      </c>
+      <c r="J30">
         <f>Sheet1!E66</f>
-        <v>11.93932355929743</v>
-      </c>
-      <c r="I30">
-        <f>Sheet1!G30</f>
+        <v>8.8546958920017413</v>
+      </c>
+      <c r="K30">
+        <f>Sheet1!F66</f>
+        <v>13.173174626215706</v>
+      </c>
+      <c r="L30">
+        <f>Sheet1!G66</f>
+        <v>28.378574539120336</v>
+      </c>
+      <c r="M30">
+        <f>Sheet1!I30</f>
         <v>27.556000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1643,34 +2135,50 @@
       </c>
       <c r="C31">
         <f>Sheet1!C31</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <f>Sheet1!D31</f>
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <f>Sheet1!E31</f>
-        <v>784</v>
-      </c>
-      <c r="F31" s="3">
+        <v>339</v>
+      </c>
+      <c r="F31">
+        <f>Sheet1!F31</f>
+        <v>1109</v>
+      </c>
+      <c r="G31">
+        <f>Sheet1!G31</f>
+        <v>2580</v>
+      </c>
+      <c r="H31">
         <f>Sheet1!C67</f>
-        <v>0.79088895919012969</v>
-      </c>
-      <c r="G31" s="3">
+        <v>7.9088895919012969E-2</v>
+      </c>
+      <c r="I31">
         <f>Sheet1!D67</f>
-        <v>4.9826004428978168</v>
-      </c>
-      <c r="H31" s="3">
+        <v>1.7795001581777918</v>
+      </c>
+      <c r="J31">
         <f>Sheet1!E67</f>
-        <v>31.002847200253083</v>
-      </c>
-      <c r="I31">
-        <f>Sheet1!G31</f>
+        <v>13.405567858272699</v>
+      </c>
+      <c r="K31">
+        <f>Sheet1!F67</f>
+        <v>43.854792787092691</v>
+      </c>
+      <c r="L31">
+        <f>Sheet1!G67</f>
+        <v>102.02467573552673</v>
+      </c>
+      <c r="M31">
+        <f>Sheet1!I31</f>
         <v>25.288</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1679,34 +2187,50 @@
       </c>
       <c r="C32">
         <f>Sheet1!C32</f>
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D32">
         <f>Sheet1!D32</f>
-        <v>420</v>
+        <v>148</v>
       </c>
       <c r="E32">
         <f>Sheet1!E32</f>
-        <v>700</v>
-      </c>
-      <c r="F32" s="3">
+        <v>567</v>
+      </c>
+      <c r="F32">
+        <f>Sheet1!F32</f>
+        <v>726</v>
+      </c>
+      <c r="G32">
+        <f>Sheet1!G32</f>
+        <v>948</v>
+      </c>
+      <c r="H32">
         <f>Sheet1!C68</f>
-        <v>1.309376591256274</v>
-      </c>
-      <c r="G32" s="3">
+        <v>0.14548628791736379</v>
+      </c>
+      <c r="I32">
         <f>Sheet1!D68</f>
-        <v>7.6380301156615991</v>
-      </c>
-      <c r="H32" s="3">
+        <v>2.6914963264712299</v>
+      </c>
+      <c r="J32">
         <f>Sheet1!E68</f>
-        <v>12.730050192769331</v>
-      </c>
-      <c r="I32">
-        <f>Sheet1!G32</f>
+        <v>10.311340656143159</v>
+      </c>
+      <c r="K32">
+        <f>Sheet1!F68</f>
+        <v>13.202880628500765</v>
+      </c>
+      <c r="L32">
+        <f>Sheet1!G68</f>
+        <v>17.240125118207608</v>
+      </c>
+      <c r="M32">
+        <f>Sheet1!I32</f>
         <v>54.988</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1715,34 +2239,50 @@
       </c>
       <c r="C33">
         <f>Sheet1!C33</f>
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <f>Sheet1!D33</f>
-        <v>597</v>
+        <v>150</v>
       </c>
       <c r="E33">
         <f>Sheet1!E33</f>
-        <v>1680</v>
-      </c>
-      <c r="F33" s="3">
+        <v>982</v>
+      </c>
+      <c r="F33">
+        <f>Sheet1!F33</f>
+        <v>2049</v>
+      </c>
+      <c r="G33">
+        <f>Sheet1!G33</f>
+        <v>3417</v>
+      </c>
+      <c r="H33">
         <f>Sheet1!C69</f>
-        <v>1.0387609565937979</v>
-      </c>
-      <c r="G33" s="3">
+        <v>5.8357357112011107E-2</v>
+      </c>
+      <c r="I33">
         <f>Sheet1!D69</f>
-        <v>6.9678684391741266</v>
-      </c>
-      <c r="H33" s="3">
+        <v>1.7507207133603333</v>
+      </c>
+      <c r="J33">
         <f>Sheet1!E69</f>
-        <v>19.608071989635732</v>
-      </c>
-      <c r="I33">
-        <f>Sheet1!G33</f>
+        <v>11.461384936798982</v>
+      </c>
+      <c r="K33">
+        <f>Sheet1!F69</f>
+        <v>23.914844944502153</v>
+      </c>
+      <c r="L33">
+        <f>Sheet1!G69</f>
+        <v>39.881417850348392</v>
+      </c>
+      <c r="M33">
+        <f>Sheet1!I33</f>
         <v>85.679000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1751,34 +2291,50 @@
       </c>
       <c r="C34">
         <f>Sheet1!C34</f>
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="D34">
         <f>Sheet1!D34</f>
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="E34">
         <f>Sheet1!E34</f>
-        <v>1024</v>
-      </c>
-      <c r="F34" s="3">
+        <v>409</v>
+      </c>
+      <c r="F34">
+        <f>Sheet1!F34</f>
+        <v>1551</v>
+      </c>
+      <c r="G34">
+        <f>Sheet1!G34</f>
+        <v>3931</v>
+      </c>
+      <c r="H34">
         <f>Sheet1!C70</f>
-        <v>0.55088924405753736</v>
-      </c>
-      <c r="G34" s="3">
+        <v>0.1292209337912742</v>
+      </c>
+      <c r="I34">
         <f>Sheet1!D70</f>
-        <v>1.5982589179447071</v>
-      </c>
-      <c r="H34" s="3">
+        <v>0.79572890808310948</v>
+      </c>
+      <c r="J34">
         <f>Sheet1!E70</f>
-        <v>6.9643282211718303</v>
-      </c>
-      <c r="I34">
-        <f>Sheet1!G34</f>
+        <v>2.781650627401639</v>
+      </c>
+      <c r="K34">
+        <f>Sheet1!F70</f>
+        <v>10.548508858435067</v>
+      </c>
+      <c r="L34">
+        <f>Sheet1!G70</f>
+        <v>26.735131091236781</v>
+      </c>
+      <c r="M34">
+        <f>Sheet1!I34</f>
         <v>147.035</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1787,30 +2343,46 @@
       </c>
       <c r="C35">
         <f>Sheet1!C35</f>
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D35">
         <f>Sheet1!D35</f>
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="E35">
         <f>Sheet1!E35</f>
-        <v>277</v>
-      </c>
-      <c r="F35" s="3">
+        <v>236</v>
+      </c>
+      <c r="F35">
+        <f>Sheet1!F35</f>
+        <v>313</v>
+      </c>
+      <c r="G35">
+        <f>Sheet1!G35</f>
+        <v>674</v>
+      </c>
+      <c r="H35">
         <f>Sheet1!C71</f>
-        <v>1.7257811091363366</v>
-      </c>
-      <c r="G35" s="3">
+        <v>0.5924323210468021</v>
+      </c>
+      <c r="I35">
         <f>Sheet1!D71</f>
-        <v>5.3318908894212189</v>
-      </c>
-      <c r="H35" s="3">
+        <v>2.447003065193313</v>
+      </c>
+      <c r="J35">
         <f>Sheet1!E71</f>
-        <v>7.1349457795636608</v>
-      </c>
-      <c r="I35">
-        <f>Sheet1!G35</f>
+        <v>6.0788707724802311</v>
+      </c>
+      <c r="K35">
+        <f>Sheet1!F71</f>
+        <v>8.0622311516369169</v>
+      </c>
+      <c r="L35">
+        <f>Sheet1!G71</f>
+        <v>17.360842799371508</v>
+      </c>
+      <c r="M35">
+        <f>Sheet1!I35</f>
         <v>38.823</v>
       </c>
     </row>
@@ -1822,20 +2394,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6B3B5E-AEA3-4D74-A2DA-5F4ABD1C4E13}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1843,23 +2419,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>43940</v>
+        <v>43921</v>
       </c>
       <c r="D1" s="1">
-        <v>43970</v>
+        <v>43951</v>
       </c>
       <c r="E1" s="1">
-        <v>44001</v>
-      </c>
-      <c r="F1" t="s">
+        <v>43982</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44043</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1867,23 +2449,29 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>415</v>
+      </c>
+      <c r="H2" s="2">
         <v>5459900</v>
       </c>
-      <c r="G2">
-        <f>F2/100000</f>
+      <c r="I2">
+        <f>H2/100000</f>
         <v>54.598999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1891,23 +2479,29 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>363</v>
+        <v>222</v>
       </c>
       <c r="E3">
-        <v>976</v>
-      </c>
-      <c r="F3" s="2">
+        <v>465</v>
+      </c>
+      <c r="F3">
+        <v>1493</v>
+      </c>
+      <c r="G3">
+        <v>3407</v>
+      </c>
+      <c r="H3" s="2">
         <v>4380800</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G35" si="0">F3/100000</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I35" si="0">H3/100000</f>
         <v>43.808</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1915,23 +2509,29 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>147</v>
-      </c>
-      <c r="F4" s="2">
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <v>152</v>
+      </c>
+      <c r="G4">
+        <v>193</v>
+      </c>
+      <c r="H4" s="2">
         <v>1517600</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>15.176</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1939,23 +2539,29 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>324</v>
+        <v>142</v>
       </c>
       <c r="D5">
-        <v>698</v>
+        <v>404</v>
       </c>
       <c r="E5">
-        <v>1331</v>
-      </c>
-      <c r="F5" s="2">
+        <v>861</v>
+      </c>
+      <c r="F5">
+        <v>1453</v>
+      </c>
+      <c r="G5">
+        <v>1835</v>
+      </c>
+      <c r="H5" s="2">
         <v>13160500</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>131.60499999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1963,23 +2569,29 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>107</v>
-      </c>
-      <c r="F6" s="2">
+        <v>91</v>
+      </c>
+      <c r="F6">
+        <v>125</v>
+      </c>
+      <c r="G6">
+        <v>217</v>
+      </c>
+      <c r="H6" s="2">
         <v>2019800</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>20.198</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1987,23 +2599,29 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>220</v>
-      </c>
-      <c r="F7" s="2">
+        <v>94</v>
+      </c>
+      <c r="F7">
+        <v>249</v>
+      </c>
+      <c r="G7">
+        <v>1015</v>
+      </c>
+      <c r="H7" s="2">
         <v>1219600</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>12.196</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2011,23 +2629,29 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>222</v>
-      </c>
-      <c r="F8" s="2">
+        <v>168</v>
+      </c>
+      <c r="F8">
+        <v>239</v>
+      </c>
+      <c r="G8">
+        <v>433</v>
+      </c>
+      <c r="H8" s="2">
         <v>981800</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>9.8179999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2035,23 +2659,29 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>3032</v>
+        <v>747</v>
       </c>
       <c r="D9">
-        <v>6155</v>
+        <v>4175</v>
       </c>
       <c r="E9">
-        <v>9655</v>
-      </c>
-      <c r="F9" s="2">
+        <v>7348</v>
+      </c>
+      <c r="F9">
+        <v>11424</v>
+      </c>
+      <c r="G9">
+        <v>21399</v>
+      </c>
+      <c r="H9" s="2">
         <v>10645000</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>106.45</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2059,23 +2689,29 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>112</v>
-      </c>
-      <c r="F10" s="2">
+        <v>97</v>
+      </c>
+      <c r="F10">
+        <v>117</v>
+      </c>
+      <c r="G10">
+        <v>162</v>
+      </c>
+      <c r="H10" s="2">
         <v>3677900</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>36.779000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2083,23 +2719,29 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>696</v>
+        <v>198</v>
       </c>
       <c r="D11">
-        <v>1700</v>
+        <v>1012</v>
       </c>
       <c r="E11">
-        <v>2805</v>
-      </c>
-      <c r="F11" s="2">
+        <v>2260</v>
+      </c>
+      <c r="F11">
+        <v>3218</v>
+      </c>
+      <c r="G11">
+        <v>6532</v>
+      </c>
+      <c r="H11" s="2">
         <v>49935700</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>499.35700000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2107,23 +2749,29 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>1175</v>
+        <v>724</v>
       </c>
       <c r="E12">
-        <v>2471</v>
-      </c>
-      <c r="F12" s="2">
+        <v>1403</v>
+      </c>
+      <c r="F12">
+        <v>3833</v>
+      </c>
+      <c r="G12">
+        <v>9516</v>
+      </c>
+      <c r="H12" s="2">
         <v>34940100</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>349.40100000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2131,23 +2779,29 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>590</v>
+        <v>93</v>
       </c>
       <c r="D13">
-        <v>2377</v>
+        <v>958</v>
       </c>
       <c r="E13">
-        <v>9057</v>
-      </c>
-      <c r="F13" s="2">
+        <v>4857</v>
+      </c>
+      <c r="F13">
+        <v>12136</v>
+      </c>
+      <c r="G13">
+        <v>22089</v>
+      </c>
+      <c r="H13" s="2">
         <v>39886300</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>398.863</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2155,23 +2809,29 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="E14">
-        <v>296</v>
-      </c>
-      <c r="F14" s="2">
+        <v>189</v>
+      </c>
+      <c r="F14">
+        <v>321</v>
+      </c>
+      <c r="G14">
+        <v>387</v>
+      </c>
+      <c r="H14" s="2">
         <v>5134800</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>51.347999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2179,23 +2839,29 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>484</v>
+        <v>170</v>
       </c>
       <c r="E15">
-        <v>2392</v>
-      </c>
-      <c r="F15" s="2">
+        <v>919</v>
+      </c>
+      <c r="F15">
+        <v>3148</v>
+      </c>
+      <c r="G15">
+        <v>6098</v>
+      </c>
+      <c r="H15" s="2">
         <v>4304000</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>43.04</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2203,23 +2869,29 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E16">
-        <v>738</v>
-      </c>
-      <c r="F16" s="2">
+        <v>410</v>
+      </c>
+      <c r="F16">
+        <v>894</v>
+      </c>
+      <c r="G16">
+        <v>1729</v>
+      </c>
+      <c r="H16" s="2">
         <v>2769200</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>27.692</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2227,23 +2899,29 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="E17">
-        <v>417</v>
-      </c>
-      <c r="F17" s="2">
+        <v>295</v>
+      </c>
+      <c r="F17">
+        <v>518</v>
+      </c>
+      <c r="G17">
+        <v>1426</v>
+      </c>
+      <c r="H17" s="2">
         <v>3793700</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <f t="shared" si="0"/>
         <v>37.936999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2251,23 +2929,29 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <v>173</v>
-      </c>
-      <c r="F18" s="2">
+        <v>165</v>
+      </c>
+      <c r="F18">
+        <v>206</v>
+      </c>
+      <c r="G18">
+        <v>283</v>
+      </c>
+      <c r="H18" s="2">
         <v>768000</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>7.68</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2275,23 +2959,29 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="E19">
-        <v>263</v>
-      </c>
-      <c r="F19" s="2">
+        <v>197</v>
+      </c>
+      <c r="F19">
+        <v>293</v>
+      </c>
+      <c r="G19">
+        <v>447</v>
+      </c>
+      <c r="H19" s="2">
         <v>2242200</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>22.422000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2299,23 +2989,29 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E20">
-        <v>172</v>
-      </c>
-      <c r="F20" s="2">
+        <v>133</v>
+      </c>
+      <c r="F20">
+        <v>190</v>
+      </c>
+      <c r="G20">
+        <v>255</v>
+      </c>
+      <c r="H20" s="2">
         <v>8521200</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>85.212000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2323,23 +3019,29 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E21">
-        <v>383</v>
-      </c>
-      <c r="F21" s="2">
+        <v>153</v>
+      </c>
+      <c r="F21">
+        <v>728</v>
+      </c>
+      <c r="G21">
+        <v>1530</v>
+      </c>
+      <c r="H21" s="2">
         <v>1278800</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>12.788</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2347,23 +3049,29 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>544</v>
-      </c>
-      <c r="F22" s="2">
+        <v>223</v>
+      </c>
+      <c r="F22">
+        <v>742</v>
+      </c>
+      <c r="G22">
+        <v>1093</v>
+      </c>
+      <c r="H22" s="2">
         <v>1831900</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>18.318999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2371,23 +3079,29 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>375</v>
+        <v>230</v>
       </c>
       <c r="E23">
-        <v>1022</v>
-      </c>
-      <c r="F23" s="2">
+        <v>636</v>
+      </c>
+      <c r="F23">
+        <v>1234</v>
+      </c>
+      <c r="G23">
+        <v>2065</v>
+      </c>
+      <c r="H23" s="2">
         <v>5125600</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <f t="shared" si="0"/>
         <v>51.256</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2395,23 +3109,29 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>108</v>
-      </c>
-      <c r="F24" s="2">
+        <v>92</v>
+      </c>
+      <c r="F24">
+        <v>113</v>
+      </c>
+      <c r="G24">
+        <v>145</v>
+      </c>
+      <c r="H24" s="2">
         <v>5541400</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <f t="shared" si="0"/>
         <v>55.414000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2419,23 +3139,29 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>389</v>
+        <v>205</v>
       </c>
       <c r="E25">
-        <v>1368</v>
-      </c>
-      <c r="F25" s="2">
+        <v>675</v>
+      </c>
+      <c r="F25">
+        <v>1750</v>
+      </c>
+      <c r="G25">
+        <v>3059</v>
+      </c>
+      <c r="H25" s="2">
         <v>3435400</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>34.353999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2443,23 +3169,29 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="E26">
-        <v>142</v>
-      </c>
-      <c r="F26" s="2">
+        <v>117</v>
+      </c>
+      <c r="F26">
+        <v>226</v>
+      </c>
+      <c r="G26">
+        <v>445</v>
+      </c>
+      <c r="H26" s="2">
         <v>7128300</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>71.283000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2467,23 +3199,29 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E27">
-        <v>104</v>
-      </c>
-      <c r="F27" s="2">
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <v>115</v>
+      </c>
+      <c r="G27">
+        <v>230</v>
+      </c>
+      <c r="H27" s="2">
         <v>1405000</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <f t="shared" si="0"/>
         <v>14.05</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2491,23 +3229,29 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>370</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>1064</v>
+        <v>491</v>
       </c>
       <c r="E28">
-        <v>3573</v>
-      </c>
-      <c r="F28" s="2">
+        <v>1541</v>
+      </c>
+      <c r="F28">
+        <v>5084</v>
+      </c>
+      <c r="G28">
+        <v>9422</v>
+      </c>
+      <c r="H28" s="2">
         <v>8928000</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <f t="shared" si="0"/>
         <v>89.28</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2515,23 +3259,29 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E29">
-        <v>173</v>
-      </c>
-      <c r="F29" s="2">
+        <v>128</v>
+      </c>
+      <c r="F29">
+        <v>189</v>
+      </c>
+      <c r="G29">
+        <v>207</v>
+      </c>
+      <c r="H29" s="2">
         <v>3097000</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>30.97</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2539,23 +3289,29 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="E30">
-        <v>329</v>
-      </c>
-      <c r="F30" s="2">
+        <v>244</v>
+      </c>
+      <c r="F30">
+        <v>363</v>
+      </c>
+      <c r="G30">
+        <v>782</v>
+      </c>
+      <c r="H30" s="2">
         <v>2755600</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <f t="shared" si="0"/>
         <v>27.556000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2563,23 +3319,29 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="E31">
-        <v>784</v>
-      </c>
-      <c r="F31" s="2">
+        <v>339</v>
+      </c>
+      <c r="F31">
+        <v>1109</v>
+      </c>
+      <c r="G31">
+        <v>2580</v>
+      </c>
+      <c r="H31" s="2">
         <v>2528800</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <f t="shared" si="0"/>
         <v>25.288</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2587,23 +3349,29 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>420</v>
+        <v>148</v>
       </c>
       <c r="E32">
-        <v>700</v>
-      </c>
-      <c r="F32" s="2">
+        <v>567</v>
+      </c>
+      <c r="F32">
+        <v>726</v>
+      </c>
+      <c r="G32">
+        <v>948</v>
+      </c>
+      <c r="H32" s="2">
         <v>5498800</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <f t="shared" si="0"/>
         <v>54.988</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2611,23 +3379,29 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>597</v>
+        <v>150</v>
       </c>
       <c r="E33">
-        <v>1680</v>
-      </c>
-      <c r="F33" s="2">
+        <v>982</v>
+      </c>
+      <c r="F33">
+        <v>2049</v>
+      </c>
+      <c r="G33">
+        <v>3417</v>
+      </c>
+      <c r="H33" s="2">
         <v>8567900</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <f t="shared" si="0"/>
         <v>85.679000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2635,23 +3409,29 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="E34">
-        <v>1024</v>
-      </c>
-      <c r="F34" s="2">
+        <v>409</v>
+      </c>
+      <c r="F34">
+        <v>1551</v>
+      </c>
+      <c r="G34">
+        <v>3931</v>
+      </c>
+      <c r="H34" s="2">
         <v>14703500</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <f t="shared" si="0"/>
         <v>147.035</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2659,23 +3439,29 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="E35">
-        <v>277</v>
-      </c>
-      <c r="F35" s="2">
+        <v>236</v>
+      </c>
+      <c r="F35">
+        <v>313</v>
+      </c>
+      <c r="G35">
+        <v>674</v>
+      </c>
+      <c r="H35" s="2">
         <v>3882300</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <f t="shared" si="0"/>
         <v>38.823</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2683,16 +3469,22 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>43940</v>
+        <v>43921</v>
       </c>
       <c r="D37" s="1">
-        <v>43970</v>
+        <v>43951</v>
       </c>
       <c r="E37" s="1">
-        <v>44001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>43982</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G37" s="1">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2700,19 +3492,27 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <f>C2/$G2</f>
-        <v>0.12820747632740528</v>
+        <f>C2/$I2</f>
+        <v>9.1576768805289477E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:E38" si="1">D2/$G2</f>
-        <v>0.32967636769904213</v>
+        <f>D2/$I2</f>
+        <v>0.18315353761057895</v>
       </c>
       <c r="E38">
+        <f t="shared" ref="E38:G38" si="1">E2/$I2</f>
+        <v>0.36630707522115791</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="1"/>
-        <v>0.69598344292020009</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>1.4652283008846316</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>7.6008718108390267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2720,19 +3520,27 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:E39" si="2">C3/$G3</f>
-        <v>3.0816289262235208</v>
+        <f t="shared" ref="C39:C71" si="2">C3/$I3</f>
+        <v>0.4337107377647918</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
-        <v>8.286157779401023</v>
+        <f t="shared" ref="D39:G39" si="3">D3/$I3</f>
+        <v>5.0675675675675675</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
-        <v>22.279035792549305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <f t="shared" si="3"/>
+        <v>10.614499634769905</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>34.080533235938638</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>77.771183345507666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2740,19 +3548,27 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:E40" si="3">C4/$G4</f>
-        <v>0.46125461254612543</v>
+        <f t="shared" si="2"/>
+        <v>0.13178703215603585</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
-        <v>1.9109119662625198</v>
+        <f t="shared" ref="D40:G40" si="4">D4/$I4</f>
+        <v>0.65893516078017922</v>
       </c>
       <c r="E40">
-        <f t="shared" si="3"/>
-        <v>9.6863468634686338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>3.0311017395888245</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>10.015814443858725</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>12.717448603057459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2760,19 +3576,27 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:E41" si="4">C5/$G5</f>
-        <v>2.4619125413168192</v>
+        <f t="shared" si="2"/>
+        <v>1.0789863607005814</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
-        <v>5.30374985752821</v>
+        <f t="shared" ref="D41:G41" si="5">D5/$I5</f>
+        <v>3.069792181148133</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
-        <v>10.113597507693477</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>6.5423046236845108</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>11.04061395843623</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>13.943239238630753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2780,19 +3604,27 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:E42" si="5">C6/$G6</f>
-        <v>0.19803940984255866</v>
+        <f t="shared" si="2"/>
+        <v>4.9509852460639665E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
-        <v>3.3171601148628578</v>
+        <f t="shared" ref="D42:G42" si="6">D6/$I6</f>
+        <v>0.59411822952767601</v>
       </c>
       <c r="E42">
-        <f t="shared" si="5"/>
-        <v>5.2975542132884446</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <f t="shared" si="6"/>
+        <v>4.50539657391821</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="6"/>
+        <v>6.188731557579958</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>10.743637983958807</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>6</v>
       </c>
@@ -2800,19 +3632,27 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:E43" si="6">C7/$G7</f>
-        <v>0.32797638570022958</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D43">
-        <f t="shared" si="6"/>
-        <v>2.295834699901607</v>
+        <f t="shared" ref="D43:G43" si="7">D7/$I7</f>
+        <v>1.2299114463758609</v>
       </c>
       <c r="E43">
-        <f t="shared" si="6"/>
-        <v>18.038701213512628</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>7.7074450639553955</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="7"/>
+        <v>20.416530009839292</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="7"/>
+        <v>83.224007871433258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>7</v>
       </c>
@@ -2820,19 +3660,27 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:E44" si="7">C8/$G8</f>
-        <v>0.71297616622530047</v>
+        <f t="shared" si="2"/>
+        <v>0.20370747606437156</v>
       </c>
       <c r="D44">
-        <f t="shared" si="7"/>
-        <v>10.694642493379508</v>
+        <f t="shared" ref="D44:G44" si="8">D8/$I8</f>
+        <v>3.7685883071908739</v>
       </c>
       <c r="E44">
-        <f t="shared" si="7"/>
-        <v>22.611529843145245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>17.111427989407211</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="8"/>
+        <v>24.343043389692404</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="8"/>
+        <v>44.102668567936448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>8</v>
       </c>
@@ -2840,19 +3688,27 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:E45" si="8">C9/$G9</f>
-        <v>28.482855800845467</v>
+        <f t="shared" si="2"/>
+        <v>7.0173790511977456</v>
       </c>
       <c r="D45">
-        <f t="shared" si="8"/>
-        <v>57.820573038985437</v>
+        <f t="shared" ref="D45:G45" si="9">D9/$I9</f>
+        <v>39.220291216533582</v>
       </c>
       <c r="E45">
-        <f t="shared" si="8"/>
-        <v>90.699859088774076</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>69.027712541099106</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="9"/>
+        <v>107.3179896665101</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="9"/>
+        <v>201.02395490840769</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>9</v>
       </c>
@@ -2860,19 +3716,27 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:E46" si="9">C10/$G10</f>
-        <v>0.21751543000081566</v>
+        <f t="shared" si="2"/>
+        <v>5.4378857500203916E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="9"/>
-        <v>2.2839120150085646</v>
+        <f t="shared" ref="D46:G46" si="10">D10/$I10</f>
+        <v>0.87006172000326265</v>
       </c>
       <c r="E46">
-        <f t="shared" si="9"/>
-        <v>3.0452160200114191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <f t="shared" si="10"/>
+        <v>2.6373745887598901</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="10"/>
+        <v>3.1811631637619291</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="10"/>
+        <v>4.4046874575165171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2880,19 +3744,27 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:E47" si="10">C11/$G11</f>
-        <v>1.393792417048324</v>
+        <f t="shared" si="2"/>
+        <v>0.39650991174650596</v>
       </c>
       <c r="D47">
-        <f t="shared" si="10"/>
-        <v>3.4043780301467685</v>
+        <f t="shared" ref="D47:G47" si="11">D11/$I11</f>
+        <v>2.0266062155932527</v>
       </c>
       <c r="E47">
-        <f t="shared" si="10"/>
-        <v>5.617223749742168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>4.5258202047833516</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="11"/>
+        <v>6.4442873535366481</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="11"/>
+        <v>13.080821937010995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2900,19 +3772,27 @@
         <v>13</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:E48" si="11">C12/$G12</f>
-        <v>0.99885232154458625</v>
+        <f t="shared" si="2"/>
+        <v>0.26616981634282671</v>
       </c>
       <c r="D48">
-        <f t="shared" si="11"/>
-        <v>3.3628982172346387</v>
+        <f t="shared" ref="D48:G48" si="12">D12/$I12</f>
+        <v>2.0721177100237265</v>
       </c>
       <c r="E48">
-        <f t="shared" si="11"/>
-        <v>7.0721033998185465</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <f t="shared" si="12"/>
+        <v>4.0154435734299554</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="12"/>
+        <v>10.970203290774784</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="12"/>
+        <v>27.235182498046655</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2920,19 +3800,27 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:E49" si="12">C13/$G13</f>
-        <v>1.4792046391868887</v>
+        <f t="shared" si="2"/>
+        <v>0.2331627651599672</v>
       </c>
       <c r="D49">
-        <f t="shared" si="12"/>
-        <v>5.959439707368194</v>
+        <f t="shared" ref="D49:G49" si="13">D13/$I13</f>
+        <v>2.401827193798372</v>
       </c>
       <c r="E49">
-        <f t="shared" si="12"/>
-        <v>22.707044774772289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <f t="shared" si="13"/>
+        <v>12.17711344496732</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="13"/>
+        <v>30.426487290122171</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="13"/>
+        <v>55.379917415252855</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>13</v>
       </c>
@@ -2940,19 +3828,27 @@
         <v>15</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:E50" si="13">C14/$G14</f>
-        <v>0.40897405935966347</v>
+        <f t="shared" si="2"/>
+        <v>0.1752745968684272</v>
       </c>
       <c r="D50">
-        <f t="shared" si="13"/>
-        <v>2.5706940874035991</v>
+        <f t="shared" ref="D50:G50" si="14">D14/$I14</f>
+        <v>1.1295474020409753</v>
       </c>
       <c r="E50">
-        <f t="shared" si="13"/>
-        <v>5.7645867414504952</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <f t="shared" si="14"/>
+        <v>3.6807665342369713</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="14"/>
+        <v>6.2514606216405699</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="14"/>
+        <v>7.5368076653423701</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>14</v>
       </c>
@@ -2960,19 +3856,27 @@
         <v>16</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:E51" si="14">C15/$G15</f>
-        <v>2.2304832713754648</v>
+        <f t="shared" si="2"/>
+        <v>0.18587360594795541</v>
       </c>
       <c r="D51">
-        <f t="shared" si="14"/>
-        <v>11.245353159851302</v>
+        <f t="shared" ref="D51:G51" si="15">D15/$I15</f>
+        <v>3.949814126394052</v>
       </c>
       <c r="E51">
-        <f t="shared" si="14"/>
-        <v>55.576208178438662</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <f t="shared" si="15"/>
+        <v>21.352230483271377</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="15"/>
+        <v>73.141263940520446</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="15"/>
+        <v>141.68215613382901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>15</v>
       </c>
@@ -2980,19 +3884,27 @@
         <v>17</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:E52" si="15">C16/$G16</f>
-        <v>1.6611295681063123</v>
+        <f t="shared" si="2"/>
+        <v>0.32500361115123499</v>
       </c>
       <c r="D52">
-        <f t="shared" si="15"/>
-        <v>8.3778708652318361</v>
+        <f t="shared" ref="D52:G52" si="16">D16/$I16</f>
+        <v>5.2361692907698973</v>
       </c>
       <c r="E52">
-        <f t="shared" si="15"/>
-        <v>26.650296114401272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <f t="shared" si="16"/>
+        <v>14.805720063556262</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="16"/>
+        <v>32.283692041022675</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="16"/>
+        <v>62.436804853387258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>16</v>
       </c>
@@ -3000,19 +3912,27 @@
         <v>18</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:E53" si="16">C17/$G17</f>
-        <v>1.5552099533437016</v>
+        <f t="shared" si="2"/>
+        <v>0.52718981469278015</v>
       </c>
       <c r="D53">
-        <f t="shared" si="16"/>
-        <v>6.8007486095368641</v>
+        <f t="shared" ref="D53:G53" si="17">D17/$I17</f>
+        <v>3.5321717584416272</v>
       </c>
       <c r="E53">
-        <f t="shared" si="16"/>
-        <v>10.991907636344466</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <f t="shared" si="17"/>
+        <v>7.7760497667185078</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="17"/>
+        <v>13.654216200543006</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="17"/>
+        <v>37.588633787595228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>17</v>
       </c>
@@ -3020,19 +3940,27 @@
         <v>19</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:E54" si="17">C18/$G18</f>
-        <v>8.984375</v>
+        <f t="shared" si="2"/>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D54">
-        <f t="shared" si="17"/>
-        <v>20.833333333333336</v>
+        <f t="shared" ref="D54:G54" si="18">D18/$I18</f>
+        <v>13.020833333333334</v>
       </c>
       <c r="E54">
-        <f t="shared" si="17"/>
-        <v>22.526041666666668</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <f t="shared" si="18"/>
+        <v>21.484375</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="18"/>
+        <v>26.822916666666668</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="18"/>
+        <v>36.848958333333336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>18</v>
       </c>
@@ -3040,19 +3968,27 @@
         <v>20</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:E55" si="18">C19/$G19</f>
-        <v>3.5233253055035232</v>
+        <f t="shared" si="2"/>
+        <v>0.31219338150031217</v>
       </c>
       <c r="D55">
-        <f t="shared" si="18"/>
-        <v>6.2438676300062435</v>
+        <f t="shared" ref="D55:G55" si="19">D19/$I19</f>
+        <v>3.9693158505039694</v>
       </c>
       <c r="E55">
-        <f t="shared" si="18"/>
-        <v>11.729551333511729</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <f t="shared" si="19"/>
+        <v>8.7860137365087851</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="19"/>
+        <v>13.067522968513067</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="19"/>
+        <v>19.935777361519936</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>19</v>
       </c>
@@ -3060,19 +3996,27 @@
         <v>21</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:E56" si="19">C20/$G20</f>
-        <v>0.30512134441158523</v>
+        <f t="shared" si="2"/>
+        <v>9.388349058818006E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="19"/>
-        <v>0.98577665117589064</v>
+        <f t="shared" ref="D56:G56" si="20">D20/$I20</f>
+        <v>0.53983007088203538</v>
       </c>
       <c r="E56">
-        <f t="shared" si="19"/>
-        <v>2.0184950476458714</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <f t="shared" si="20"/>
+        <v>1.5608130310284936</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="20"/>
+        <v>2.2297329014692764</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="20"/>
+        <v>2.9925362624982395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>20</v>
       </c>
@@ -3080,19 +4024,27 @@
         <v>22</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:E57" si="20">C21/$G21</f>
-        <v>0.3127932436659368</v>
+        <f t="shared" si="2"/>
+        <v>7.8198310916484201E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="20"/>
-        <v>7.4288395370659996</v>
+        <f t="shared" ref="D57:G57" si="21">D21/$I21</f>
+        <v>3.1279324366593682</v>
       </c>
       <c r="E57">
-        <f t="shared" si="20"/>
-        <v>29.949953081013451</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <f t="shared" si="21"/>
+        <v>11.964341570222082</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="21"/>
+        <v>56.928370347200499</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="21"/>
+        <v>119.64341570222084</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>21</v>
       </c>
@@ -3100,19 +4052,27 @@
         <v>23</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:E58" si="21">C22/$G22</f>
-        <v>0.92799825317975881</v>
+        <f t="shared" si="2"/>
+        <v>5.4588132539985811E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="21"/>
-        <v>5.8409301817784813</v>
+        <f t="shared" ref="D58:G58" si="22">D22/$I22</f>
+        <v>1.2555270484196737</v>
       </c>
       <c r="E58">
-        <f t="shared" si="21"/>
-        <v>29.695944101752282</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <f t="shared" si="22"/>
+        <v>12.173153556416835</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="22"/>
+        <v>40.504394344669471</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="22"/>
+        <v>59.664828866204488</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>22</v>
       </c>
@@ -3120,19 +4080,27 @@
         <v>24</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:E59" si="22">C23/$G23</f>
-        <v>1.1901045731231465</v>
+        <f t="shared" si="2"/>
+        <v>7.8039644139222722E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="22"/>
-        <v>7.3162166380521301</v>
+        <f t="shared" ref="D59:G59" si="23">D23/$I23</f>
+        <v>4.487279538005307</v>
       </c>
       <c r="E59">
-        <f t="shared" si="22"/>
-        <v>19.939129077571405</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <f t="shared" si="23"/>
+        <v>12.408303418136413</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="23"/>
+        <v>24.07523021695021</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="23"/>
+        <v>40.287966286873733</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>23</v>
       </c>
@@ -3140,19 +4108,27 @@
         <v>25</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:E60" si="23">C24/$G24</f>
-        <v>1.8045981159995669E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D60">
-        <f t="shared" si="23"/>
-        <v>1.2812646623596924</v>
+        <f t="shared" ref="D60:G60" si="24">D24/$I24</f>
+        <v>5.4137943479987002E-2</v>
       </c>
       <c r="E60">
-        <f t="shared" si="23"/>
-        <v>1.9489659652795321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <f t="shared" si="24"/>
+        <v>1.6602302667196016</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="24"/>
+        <v>2.0391958710795106</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="24"/>
+        <v>2.6166672681993721</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>24</v>
       </c>
@@ -3160,19 +4136,27 @@
         <v>26</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:E61" si="24">C25/$G25</f>
-        <v>3.114630028526518</v>
+        <f t="shared" si="2"/>
+        <v>0.29108691855388019</v>
       </c>
       <c r="D61">
-        <f t="shared" si="24"/>
-        <v>11.32328113174594</v>
+        <f t="shared" ref="D61:G61" si="25">D25/$I25</f>
+        <v>5.9672818303545441</v>
       </c>
       <c r="E61">
-        <f t="shared" si="24"/>
-        <v>39.820690458170809</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <f t="shared" si="25"/>
+        <v>19.648367002386912</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="25"/>
+        <v>50.940210746929033</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="25"/>
+        <v>89.043488385631946</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>25</v>
       </c>
@@ -3180,19 +4164,27 @@
         <v>27</v>
       </c>
       <c r="C62">
-        <f t="shared" ref="C62:E62" si="25">C26/$G26</f>
-        <v>0.42085770800892219</v>
+        <f t="shared" si="2"/>
+        <v>4.2085770800892215E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="25"/>
-        <v>1.4870305682981917</v>
+        <f t="shared" ref="D62:G62" si="26">D26/$I26</f>
+        <v>0.57517220094552701</v>
       </c>
       <c r="E62">
-        <f t="shared" si="25"/>
-        <v>1.9920598179088982</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <f t="shared" si="26"/>
+        <v>1.6413450612347964</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="26"/>
+        <v>3.1704614003338802</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="26"/>
+        <v>6.2427226687990123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>26</v>
       </c>
@@ -3200,19 +4192,27 @@
         <v>28</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:E63" si="26">C27/$G27</f>
-        <v>0.49822064056939497</v>
+        <f t="shared" si="2"/>
+        <v>7.1174377224199281E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="26"/>
-        <v>5.4804270462633449</v>
+        <f t="shared" ref="D63:G63" si="27">D27/$I27</f>
+        <v>2.9893238434163698</v>
       </c>
       <c r="E63">
-        <f t="shared" si="26"/>
-        <v>7.4021352313167252</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <f t="shared" si="27"/>
+        <v>6.5480427046263339</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="27"/>
+        <v>8.185053380782918</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="27"/>
+        <v>16.370106761565836</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>27</v>
       </c>
@@ -3220,19 +4220,27 @@
         <v>29</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:E64" si="27">C28/$G28</f>
-        <v>4.1442652329749103</v>
+        <f t="shared" si="2"/>
+        <v>0.56003584229390679</v>
       </c>
       <c r="D64">
-        <f t="shared" si="27"/>
-        <v>11.917562724014337</v>
+        <f t="shared" ref="D64:G64" si="28">D28/$I28</f>
+        <v>5.4995519713261647</v>
       </c>
       <c r="E64">
-        <f t="shared" si="27"/>
-        <v>40.020161290322584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <f t="shared" si="28"/>
+        <v>17.260304659498207</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="28"/>
+        <v>56.944444444444443</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="28"/>
+        <v>105.5331541218638</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>28</v>
       </c>
@@ -3240,19 +4248,27 @@
         <v>30</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:E65" si="28">C29/$G29</f>
-        <v>0.8718114304165322</v>
+        <f t="shared" si="2"/>
+        <v>9.6867936712948022E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="28"/>
-        <v>3.7132709073296741</v>
+        <f t="shared" ref="D65:G65" si="29">D29/$I29</f>
+        <v>1.517597675169519</v>
       </c>
       <c r="E65">
-        <f t="shared" si="28"/>
-        <v>5.586051017113336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <f t="shared" si="29"/>
+        <v>4.1330319664191153</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="29"/>
+        <v>6.1026800129157248</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="29"/>
+        <v>6.6838876331934136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>29</v>
       </c>
@@ -3260,19 +4276,27 @@
         <v>31</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:E66" si="29">C30/$G30</f>
-        <v>1.3427202787051822</v>
+        <f t="shared" si="2"/>
+        <v>0.10886921178690666</v>
       </c>
       <c r="D66">
-        <f t="shared" si="29"/>
-        <v>7.3305269269850486</v>
+        <f t="shared" ref="D66:G66" si="30">D30/$I30</f>
+        <v>2.2499637102627377</v>
       </c>
       <c r="E66">
-        <f t="shared" si="29"/>
-        <v>11.93932355929743</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <f t="shared" si="30"/>
+        <v>8.8546958920017413</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="30"/>
+        <v>13.173174626215706</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="30"/>
+        <v>28.378574539120336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>30</v>
       </c>
@@ -3280,19 +4304,27 @@
         <v>32</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:E67" si="30">C31/$G31</f>
-        <v>0.79088895919012969</v>
+        <f t="shared" si="2"/>
+        <v>7.9088895919012969E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" si="30"/>
-        <v>4.9826004428978168</v>
+        <f t="shared" ref="D67:G67" si="31">D31/$I31</f>
+        <v>1.7795001581777918</v>
       </c>
       <c r="E67">
-        <f t="shared" si="30"/>
-        <v>31.002847200253083</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <f t="shared" si="31"/>
+        <v>13.405567858272699</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="31"/>
+        <v>43.854792787092691</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="31"/>
+        <v>102.02467573552673</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>31</v>
       </c>
@@ -3300,19 +4332,27 @@
         <v>33</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:E68" si="31">C32/$G32</f>
-        <v>1.309376591256274</v>
+        <f t="shared" si="2"/>
+        <v>0.14548628791736379</v>
       </c>
       <c r="D68">
-        <f t="shared" si="31"/>
-        <v>7.6380301156615991</v>
+        <f t="shared" ref="D68:G68" si="32">D32/$I32</f>
+        <v>2.6914963264712299</v>
       </c>
       <c r="E68">
-        <f t="shared" si="31"/>
-        <v>12.730050192769331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <f t="shared" si="32"/>
+        <v>10.311340656143159</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="32"/>
+        <v>13.202880628500765</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="32"/>
+        <v>17.240125118207608</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>32</v>
       </c>
@@ -3320,19 +4360,27 @@
         <v>34</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:E69" si="32">C33/$G33</f>
-        <v>1.0387609565937979</v>
+        <f t="shared" si="2"/>
+        <v>5.8357357112011107E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="32"/>
-        <v>6.9678684391741266</v>
+        <f t="shared" ref="D69:G69" si="33">D33/$I33</f>
+        <v>1.7507207133603333</v>
       </c>
       <c r="E69">
-        <f t="shared" si="32"/>
-        <v>19.608071989635732</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <f t="shared" si="33"/>
+        <v>11.461384936798982</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="33"/>
+        <v>23.914844944502153</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="33"/>
+        <v>39.881417850348392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>33</v>
       </c>
@@ -3340,19 +4388,27 @@
         <v>35</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:E70" si="33">C34/$G34</f>
-        <v>0.55088924405753736</v>
+        <f t="shared" si="2"/>
+        <v>0.1292209337912742</v>
       </c>
       <c r="D70">
-        <f t="shared" si="33"/>
-        <v>1.5982589179447071</v>
+        <f t="shared" ref="D70:G70" si="34">D34/$I34</f>
+        <v>0.79572890808310948</v>
       </c>
       <c r="E70">
-        <f t="shared" si="33"/>
-        <v>6.9643282211718303</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <f t="shared" si="34"/>
+        <v>2.781650627401639</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="34"/>
+        <v>10.548508858435067</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="34"/>
+        <v>26.735131091236781</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>34</v>
       </c>
@@ -3360,16 +4416,24 @@
         <v>36</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:E71" si="34">C35/$G35</f>
-        <v>1.7257811091363366</v>
+        <f t="shared" si="2"/>
+        <v>0.5924323210468021</v>
       </c>
       <c r="D71">
-        <f t="shared" si="34"/>
-        <v>5.3318908894212189</v>
+        <f t="shared" ref="D71:G71" si="35">D35/$I35</f>
+        <v>2.447003065193313</v>
       </c>
       <c r="E71">
-        <f t="shared" si="34"/>
-        <v>7.1349457795636608</v>
+        <f t="shared" si="35"/>
+        <v>6.0788707724802311</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="35"/>
+        <v>8.0622311516369169</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="35"/>
+        <v>17.360842799371508</v>
       </c>
     </row>
   </sheetData>
